--- a/biology/Zoologie/Aeshna_verticalis/Aeshna_verticalis.xlsx
+++ b/biology/Zoologie/Aeshna_verticalis/Aeshna_verticalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeshna verticalis est une espèce d'insectes de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates[1]. Le nom vernaculaire est l'æschne verticale. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeshna verticalis est une espèce d'insectes de la famille des Aeshnidae appartenant au sous-ordre des anisoptères dans l'ordre des odonates. Le nom vernaculaire est l'æschne verticale. 
 </t>
         </is>
       </c>
@@ -511,12 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette æschne mesure entre 62-72 mm de long et ces motifs abdominaux sont habituellement à prédominance bleue ou verte chez le mâle et jaunes à verts chez la femelle. La première bande thoracique ressemble à une note de musique (une croche) et possède une encoche moins prononcée que chez Aeshna canadensis. Les bandes sont généralement d'un dégradé de jaune à bleu et il y a présence d'une très petite tache entre celles-ci [2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette æschne mesure entre 62-72 mm de long et ces motifs abdominaux sont habituellement à prédominance bleue ou verte chez le mâle et jaunes à verts chez la femelle. La première bande thoracique ressemble à une note de musique (une croche) et possède une encoche moins prononcée que chez Aeshna canadensis. Les bandes sont généralement d'un dégradé de jaune à bleu et il y a présence d'une très petite tache entre celles-ci . 
 			Mâle.
-Espèce similaire
-Un examen des pièces génitales permet de différencier Aeshna canadensis de A. verticalis avec certitude.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle se retrouve dans le sud des provinces de l'est du Canada et dans la province du Manitoba. Aux États-Unis, on l'observe dans les états du Nord-Est [3].
+          <t>Espèce similaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un examen des pièces génitales permet de différencier Aeshna canadensis de A. verticalis avec certitude.
 </t>
         </is>
       </c>
@@ -573,12 +591,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se retrouve dans le sud des provinces de l'est du Canada et dans la province du Manitoba. Aux États-Unis, on l'observe dans les états du Nord-Est .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aeshna_verticalis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aeshna_verticalis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fréquente les étangs, les ruisseaux, les gravières, les rivières et les tourbières[4]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fréquente les étangs, les ruisseaux, les gravières, les rivières et les tourbières. 
 </t>
         </is>
       </c>
